--- a/X328.xlsx
+++ b/X328.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESPACIO DE TRABAJO\X328 - Armadora de cajas ST1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FJR\Desktop\FJR\Obras - eProC\REPO_GITHUB\RepoX328\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="377">
   <si>
     <t>PROGRAMA PLC</t>
   </si>
@@ -1036,9 +1036,6 @@
     <t>iReserva_4</t>
   </si>
   <si>
-    <t>iReserva_5</t>
-  </si>
-  <si>
     <t>iReserva_6</t>
   </si>
   <si>
@@ -1087,30 +1084,6 @@
     <t>Conexión de aire OK</t>
   </si>
   <si>
-    <t>oReserva_7</t>
-  </si>
-  <si>
-    <t>oReserva_8</t>
-  </si>
-  <si>
-    <t>oReserva_9</t>
-  </si>
-  <si>
-    <t>oReserva_10</t>
-  </si>
-  <si>
-    <t>oReserva_11</t>
-  </si>
-  <si>
-    <t>oReserva_12</t>
-  </si>
-  <si>
-    <t>iReserva</t>
-  </si>
-  <si>
-    <t>NO EXISTE</t>
-  </si>
-  <si>
     <t>¿?</t>
   </si>
   <si>
@@ -1172,13 +1145,28 @@
   </si>
   <si>
     <t>MIERCOLES 21</t>
+  </si>
+  <si>
+    <t>SALIDAS INTEGRADAS DEL PLC</t>
+  </si>
+  <si>
+    <t>MODULO 16 DI/16 DO</t>
+  </si>
+  <si>
+    <t>ENTRADAS INEGRADAS EN PLC</t>
+  </si>
+  <si>
+    <t>MODULO 8 DI (VER SI LO USAMOS)</t>
+  </si>
+  <si>
+    <t>MODULO 16 DI/ 16 DO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1193,13 +1181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,7 +1189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,17 +1234,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1271,6 +1241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,11 +1383,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1441,27 +1416,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1749,23 +1728,23 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="83.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1778,15 +1757,15 @@
         <v>2</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1803,7 +1782,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1815,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1848,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1881,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +1914,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1966,7 +1945,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1997,7 +1976,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2020,7 +1999,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2047,7 +2026,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2070,7 +2049,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2099,7 +2078,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2128,7 +2107,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -2157,7 +2136,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2165,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -2217,7 +2196,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -2248,7 +2227,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
@@ -2265,7 +2244,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2288,7 +2267,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2315,7 +2294,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2342,7 +2321,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -2369,7 +2348,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -2396,7 +2375,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -2423,7 +2402,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -2450,7 +2429,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2473,7 +2452,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2490,7 +2469,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2513,7 +2492,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -2546,7 +2525,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -2579,7 +2558,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -2610,7 +2589,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -2641,7 +2620,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -2672,7 +2651,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -2703,7 +2682,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -2734,7 +2713,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2751,7 +2730,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
@@ -2776,7 +2755,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>63</v>
       </c>
@@ -2805,7 +2784,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -2832,7 +2811,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -2857,7 +2836,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
@@ -2886,7 +2865,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
@@ -2913,7 +2892,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>68</v>
       </c>
@@ -2938,7 +2917,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>69</v>
       </c>
@@ -2963,7 +2942,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2980,7 +2959,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2995,7 +2974,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>71</v>
       </c>
@@ -3020,7 +2999,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>72</v>
       </c>
@@ -3045,7 +3024,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3061,7 +3040,7 @@
       </c>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -3092,7 +3071,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -3123,7 +3102,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -3151,7 +3130,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>76</v>
       </c>
@@ -3179,7 +3158,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>77</v>
       </c>
@@ -3210,7 +3189,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>78</v>
       </c>
@@ -3234,7 +3213,7 @@
       </c>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>79</v>
       </c>
@@ -3258,7 +3237,7 @@
       </c>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>80</v>
       </c>
@@ -3282,7 +3261,7 @@
       </c>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
@@ -3298,7 +3277,7 @@
       </c>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>81</v>
       </c>
@@ -3322,7 +3301,7 @@
       </c>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>82</v>
       </c>
@@ -3346,7 +3325,7 @@
       </c>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>83</v>
       </c>
@@ -3370,7 +3349,7 @@
       </c>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>84</v>
       </c>
@@ -3394,7 +3373,7 @@
       </c>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>85</v>
       </c>
@@ -3418,7 +3397,7 @@
       </c>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>86</v>
       </c>
@@ -3438,7 +3417,7 @@
       <c r="K64" s="9"/>
       <c r="M64" s="10"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>87</v>
       </c>
@@ -3469,7 +3448,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>88</v>
       </c>
@@ -3500,7 +3479,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I67" s="8" t="s">
         <v>296</v>
       </c>
@@ -3517,7 +3496,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I68" s="8" t="s">
         <v>298</v>
       </c>
@@ -3534,7 +3513,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I69" s="8" t="s">
         <v>300</v>
       </c>
@@ -3551,7 +3530,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I70" s="8" t="s">
         <v>302</v>
       </c>
@@ -3568,7 +3547,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I71" s="8" t="s">
         <v>304</v>
       </c>
@@ -3585,7 +3564,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I72" s="8" t="s">
         <v>306</v>
       </c>
@@ -3602,7 +3581,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I73" s="8" t="s">
         <v>308</v>
       </c>
@@ -3619,7 +3598,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I74" s="8" t="s">
         <v>310</v>
       </c>
@@ -3636,7 +3615,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I75" s="8" t="s">
         <v>312</v>
       </c>
@@ -3653,7 +3632,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I76" s="8" t="s">
         <v>314</v>
       </c>
@@ -3668,7 +3647,7 @@
       </c>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I77" s="8" t="s">
         <v>316</v>
       </c>
@@ -3685,7 +3664,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I78" s="8" t="s">
         <v>318</v>
       </c>
@@ -3702,7 +3681,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I79" s="8" t="s">
         <v>320</v>
       </c>
@@ -3719,7 +3698,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I80" s="13" t="s">
         <v>322</v>
       </c>
@@ -3745,31 +3724,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3778,148 +3757,150 @@
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="E4" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="E5" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="E6" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="E7" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="E8" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="E9" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C10" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="E10" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C11" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>333</v>
       </c>
@@ -3932,9 +3913,9 @@
       <c r="D12" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>334</v>
       </c>
@@ -3947,9 +3928,9 @@
       <c r="D13" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>217</v>
       </c>
@@ -3966,7 +3947,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>220</v>
       </c>
@@ -3983,10 +3964,10 @@
         <v>268</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>222</v>
       </c>
@@ -4003,7 +3984,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>224</v>
       </c>
@@ -4020,29 +4001,21 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>335</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>193</v>
@@ -4050,21 +4023,29 @@
       <c r="D19" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>193</v>
@@ -4072,14 +4053,14 @@
       <c r="D21" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>193</v>
@@ -4087,14 +4068,14 @@
       <c r="D22" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>193</v>
@@ -4102,14 +4083,14 @@
       <c r="D23" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>193</v>
@@ -4117,14 +4098,14 @@
       <c r="D24" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>193</v>
@@ -4132,14 +4113,14 @@
       <c r="D25" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>193</v>
@@ -4147,354 +4128,350 @@
       <c r="D26" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>345</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>193</v>
@@ -4502,14 +4479,14 @@
       <c r="D49" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="28"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>346</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>193</v>
@@ -4517,14 +4494,14 @@
       <c r="D50" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="28"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>193</v>
@@ -4532,14 +4509,14 @@
       <c r="D51" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="28"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>348</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>193</v>
@@ -4547,477 +4524,362 @@
       <c r="D52" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E52" s="25"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="25"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="22" t="s">
+      <c r="B56" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="25"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="28"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D60" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="27"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="27"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="27"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="27"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="27"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D72" t="s">
-        <v>98</v>
+      <c r="D72" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D73" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D77" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="23" t="s">
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="24" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" t="s">
-        <v>104</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5028,129 +4890,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B16" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="B16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="B21" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/X328.xlsx
+++ b/X328.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FJR\Desktop\FJR\Obras - eProC\REPO_GITHUB\RepoX328\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RepoGaj\RepoX328\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="388">
   <si>
     <t>PROGRAMA PLC</t>
   </si>
@@ -1160,6 +1160,39 @@
   </si>
   <si>
     <t>MODULO 16 DI/ 16 DO</t>
+  </si>
+  <si>
+    <t>verificar cada sensor y correspondiente entrada</t>
+  </si>
+  <si>
+    <t>montale PLC 1200 y reles de interface.</t>
+  </si>
+  <si>
+    <t>conexionado de entradas y salidas del PLC 1200</t>
+  </si>
+  <si>
+    <t>desmontaje de PLC S5 y modulos de entrada y salida, reles, temporizadores.</t>
+  </si>
+  <si>
+    <t>conexionado de rele de interface a bornes, termicas, tapa de pupitre.</t>
+  </si>
+  <si>
+    <t>Se da tensión al pupitre y se testea a medida que se va levatando termicas</t>
+  </si>
+  <si>
+    <t>se conecta el PLC con PC y verifica comunicación, se carga ultima versión del programa editado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba de entradas y salidas del PLC </t>
+  </si>
+  <si>
+    <t>verificar cada sensor/electrovalvula y correspondiente salida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realizar pruebas de movimientos manuales </t>
+  </si>
+  <si>
+    <t>realizar purebas de movimientos automaticos, realizar el ciclo de trabajo</t>
   </si>
 </sst>
 </file>
@@ -1427,9 +1460,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1438,6 +1468,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,23 +1761,23 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="83.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="83.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1765,7 +1798,7 @@
       <c r="L1" s="29"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +1815,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1848,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1881,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +1914,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1947,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1945,7 +1978,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1976,7 +2009,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1999,7 +2032,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2026,7 +2059,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2049,7 +2082,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2078,7 +2111,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2107,7 +2140,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -2136,7 +2169,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +2229,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2260,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
@@ -2244,7 +2277,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2267,7 +2300,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2294,7 +2327,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2321,7 +2354,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -2348,7 +2381,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -2375,7 +2408,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -2402,7 +2435,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -2429,7 +2462,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2452,7 +2485,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2469,7 +2502,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2492,7 +2525,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -2525,7 +2558,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -2558,7 +2591,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -2589,7 +2622,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -2620,7 +2653,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -2651,7 +2684,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -2682,7 +2715,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -2713,7 +2746,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2730,7 +2763,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
@@ -2755,7 +2788,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>63</v>
       </c>
@@ -2784,7 +2817,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -2811,7 +2844,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -2836,7 +2869,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
@@ -2865,7 +2898,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
@@ -2892,7 +2925,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>68</v>
       </c>
@@ -2917,7 +2950,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>69</v>
       </c>
@@ -2942,7 +2975,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2959,7 +2992,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2974,7 +3007,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>71</v>
       </c>
@@ -2999,7 +3032,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>72</v>
       </c>
@@ -3024,7 +3057,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3040,7 +3073,7 @@
       </c>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -3071,7 +3104,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -3102,7 +3135,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -3130,7 +3163,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>76</v>
       </c>
@@ -3158,7 +3191,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>77</v>
       </c>
@@ -3189,7 +3222,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>78</v>
       </c>
@@ -3213,7 +3246,7 @@
       </c>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>79</v>
       </c>
@@ -3237,7 +3270,7 @@
       </c>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>80</v>
       </c>
@@ -3261,7 +3294,7 @@
       </c>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
@@ -3277,7 +3310,7 @@
       </c>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>81</v>
       </c>
@@ -3301,7 +3334,7 @@
       </c>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>82</v>
       </c>
@@ -3325,7 +3358,7 @@
       </c>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>83</v>
       </c>
@@ -3349,7 +3382,7 @@
       </c>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>84</v>
       </c>
@@ -3373,7 +3406,7 @@
       </c>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>85</v>
       </c>
@@ -3397,7 +3430,7 @@
       </c>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>86</v>
       </c>
@@ -3417,7 +3450,7 @@
       <c r="K64" s="9"/>
       <c r="M64" s="10"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>87</v>
       </c>
@@ -3448,7 +3481,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>88</v>
       </c>
@@ -3479,7 +3512,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I67" s="8" t="s">
         <v>296</v>
       </c>
@@ -3496,7 +3529,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I68" s="8" t="s">
         <v>298</v>
       </c>
@@ -3513,7 +3546,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I69" s="8" t="s">
         <v>300</v>
       </c>
@@ -3530,7 +3563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I70" s="8" t="s">
         <v>302</v>
       </c>
@@ -3547,7 +3580,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I71" s="8" t="s">
         <v>304</v>
       </c>
@@ -3564,7 +3597,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I72" s="8" t="s">
         <v>306</v>
       </c>
@@ -3581,7 +3614,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I73" s="8" t="s">
         <v>308</v>
       </c>
@@ -3598,7 +3631,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I74" s="8" t="s">
         <v>310</v>
       </c>
@@ -3615,7 +3648,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I75" s="8" t="s">
         <v>312</v>
       </c>
@@ -3632,7 +3665,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I76" s="8" t="s">
         <v>314</v>
       </c>
@@ -3647,7 +3680,7 @@
       </c>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I77" s="8" t="s">
         <v>316</v>
       </c>
@@ -3664,7 +3697,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I78" s="8" t="s">
         <v>318</v>
       </c>
@@ -3681,7 +3714,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I79" s="8" t="s">
         <v>320</v>
       </c>
@@ -3698,7 +3731,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I80" s="13" t="s">
         <v>322</v>
       </c>
@@ -3726,20 +3759,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>190</v>
       </c>
@@ -3748,7 +3781,7 @@
       <c r="D1" s="29"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3757,16 +3790,16 @@
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>191</v>
       </c>
@@ -3783,7 +3816,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>195</v>
       </c>
@@ -3800,7 +3833,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>198</v>
       </c>
@@ -3817,7 +3850,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>200</v>
       </c>
@@ -3834,7 +3867,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>203</v>
       </c>
@@ -3851,7 +3884,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>205</v>
       </c>
@@ -3868,7 +3901,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>327</v>
       </c>
@@ -3885,7 +3918,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>332</v>
       </c>
@@ -3900,7 +3933,7 @@
       </c>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>333</v>
       </c>
@@ -3915,7 +3948,7 @@
       </c>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>334</v>
       </c>
@@ -3930,7 +3963,7 @@
       </c>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>217</v>
       </c>
@@ -3947,7 +3980,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>220</v>
       </c>
@@ -3967,7 +4000,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>222</v>
       </c>
@@ -3984,7 +4017,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>224</v>
       </c>
@@ -4001,16 +4034,16 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>335</v>
       </c>
@@ -4025,7 +4058,7 @@
       </c>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>336</v>
       </c>
@@ -4040,7 +4073,7 @@
       </c>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>337</v>
       </c>
@@ -4055,7 +4088,7 @@
       </c>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>338</v>
       </c>
@@ -4070,7 +4103,7 @@
       </c>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>339</v>
       </c>
@@ -4085,7 +4118,7 @@
       </c>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>340</v>
       </c>
@@ -4100,7 +4133,7 @@
       </c>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>341</v>
       </c>
@@ -4115,7 +4148,7 @@
       </c>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>342</v>
       </c>
@@ -4130,16 +4163,16 @@
       </c>
       <c r="E26" s="25"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>236</v>
       </c>
@@ -4156,7 +4189,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>238</v>
       </c>
@@ -4173,7 +4206,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>240</v>
       </c>
@@ -4190,7 +4223,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>242</v>
       </c>
@@ -4207,7 +4240,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>244</v>
       </c>
@@ -4224,7 +4257,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>246</v>
       </c>
@@ -4241,7 +4274,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>248</v>
       </c>
@@ -4258,7 +4291,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>343</v>
       </c>
@@ -4273,7 +4306,7 @@
       </c>
       <c r="E35" s="25"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>251</v>
       </c>
@@ -4290,7 +4323,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>253</v>
       </c>
@@ -4307,7 +4340,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>255</v>
       </c>
@@ -4324,7 +4357,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>257</v>
       </c>
@@ -4341,7 +4374,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>259</v>
       </c>
@@ -4358,7 +4391,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>261</v>
       </c>
@@ -4375,7 +4408,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>263</v>
       </c>
@@ -4392,7 +4425,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>265</v>
       </c>
@@ -4409,14 +4442,14 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>62</v>
       </c>
@@ -4425,16 +4458,16 @@
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>272</v>
       </c>
@@ -4451,7 +4484,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>344</v>
       </c>
@@ -4466,7 +4499,7 @@
       </c>
       <c r="E48" s="25"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>345</v>
       </c>
@@ -4481,7 +4514,7 @@
       </c>
       <c r="E49" s="25"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>346</v>
       </c>
@@ -4496,7 +4529,7 @@
       </c>
       <c r="E50" s="25"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>347</v>
       </c>
@@ -4511,7 +4544,7 @@
       </c>
       <c r="E51" s="25"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>348</v>
       </c>
@@ -4527,7 +4560,7 @@
       <c r="E52" s="25"/>
       <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>325</v>
       </c>
@@ -4544,7 +4577,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>329</v>
       </c>
@@ -4561,7 +4594,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>348</v>
       </c>
@@ -4576,7 +4609,7 @@
       </c>
       <c r="E55" s="25"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>349</v>
       </c>
@@ -4591,16 +4624,16 @@
       </c>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>292</v>
       </c>
@@ -4617,7 +4650,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>294</v>
       </c>
@@ -4634,7 +4667,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>296</v>
       </c>
@@ -4651,7 +4684,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>298</v>
       </c>
@@ -4668,7 +4701,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>300</v>
       </c>
@@ -4685,7 +4718,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>302</v>
       </c>
@@ -4702,7 +4735,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>304</v>
       </c>
@@ -4719,7 +4752,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>306</v>
       </c>
@@ -4736,7 +4769,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>308</v>
       </c>
@@ -4753,7 +4786,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>310</v>
       </c>
@@ -4770,7 +4803,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>312</v>
       </c>
@@ -4787,7 +4820,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>314</v>
       </c>
@@ -4804,7 +4837,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>316</v>
       </c>
@@ -4821,7 +4854,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>318</v>
       </c>
@@ -4838,7 +4871,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>320</v>
       </c>
@@ -4855,7 +4888,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>322</v>
       </c>
@@ -4888,126 +4921,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>369</v>
       </c>
       <c r="B2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
       <c r="B3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="C3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
       <c r="B4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="C4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
       <c r="B5" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="C5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="C6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>370</v>
       </c>
       <c r="B8" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="C8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
       <c r="B9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="C9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
       <c r="B10" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="C10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
       <c r="B11" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="C11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
       <c r="B12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
       <c r="B13" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
       <c r="B14" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="C14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>371</v>
       </c>
       <c r="B16" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
       <c r="B17" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="C17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
       <c r="B18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
       <c r="B19" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>351</v>
       </c>
